--- a/TMC.xlsx
+++ b/TMC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d13e2baef076438c/partage/TMC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmax\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="11_7D4755BF84DCCE13E97046798E31F45B5A712953" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4C9175A-E8A6-4610-A558-0EE809B7BF82}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422B0CD3-EA80-4A8E-8909-7DCF9A5DBF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -204,10 +204,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,24 +526,24 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.875" style="1"/>
+    <col min="4" max="4" width="16.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1"/>
+    <col min="6" max="6" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.875" style="1"/>
+    <col min="9" max="9" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="13.375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -602,12 +598,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -638,50 +634,50 @@
         <v>1</v>
       </c>
       <c r="J5" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K5" s="4">
-        <f>IF(J5&lt;=5, 1-(0.1*K2), IF(J5&lt;=15, 1-(0.1*5 + 0.05*(J5-5)), 1-(0.1*5 + 0.05*10)))</f>
-        <v>0.19999999999999996</v>
+        <f>IF(J5&lt;=5, 1-(0.1*J5), IF(J5&lt;=15, 1-(0.1*5 + 0.05*(J5-5)), 1-(0.1*5 + 0.05*10)))</f>
+        <v>0.9</v>
       </c>
       <c r="L5" s="5">
         <f>D5*E5/F5*G5/H5*I5*K5</f>
-        <v>363.99479585560857</v>
+        <v>1637.976581350239</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="60vu75w75X5VkioKNb4rPBUV/QWi4es/ql5N1JhMetobhGeto5CCmtTI7w9yohOwnTvTfNBMW0FIp1xsJsAEJQ==" saltValue="vBR3D71HG+/45IIemNtiCw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="czgXnPURRPjaU+P7tkDSWUCZ/tWVzMf1fgqHtZ+nfz09wbpmni5R+g7KTH0tNs2ktkI7ipFvDuj07HiiLZ9jwA==" saltValue="DQgDVESMVwc7r+xD8Vomag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" xr:uid="{241ADBAF-89D2-4E64-B084-C124F454EDE7}"/>
     <hyperlink ref="A14" r:id="rId2" xr:uid="{DA3DCA8C-52E7-4FA7-B130-30E7FC9CD93E}"/>
